--- a/CUWB_INT_MIO_WebService_Examples.xlsx
+++ b/CUWB_INT_MIO_WebService_Examples.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcarlsen\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C984D2D0-4DB2-4DD8-AF3A-16ED6DB0C73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B01033BA-5740-4067-9E3A-0169A6C4F9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{EF8171FC-01E4-4B6F-B7AF-12C61EC030FD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="737" activeTab="6" xr2:uid="{EF8171FC-01E4-4B6F-B7AF-12C61EC030FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="GetAllUnbilledLoans" sheetId="1" r:id="rId1"/>
+    <sheet name="GetAllUnbilledLoansForDate" sheetId="2" r:id="rId2"/>
+    <sheet name="GetNumberOfUnbilledLoans" sheetId="3" r:id="rId3"/>
+    <sheet name="GetRepInfo" sheetId="4" r:id="rId4"/>
+    <sheet name="ListUnderwritersWithUnbill" sheetId="5" r:id="rId5"/>
+    <sheet name="ListUnderwritersWithUnbilledLoa" sheetId="6" r:id="rId6"/>
+    <sheet name="UpdateLoanBillingStatus" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
   <si>
     <t>WMCUWGetNumberOfUnbilledLoans</t>
   </si>
@@ -180,6 +180,51 @@
   </si>
   <si>
     <t>WMCUWListUnderwritersWithUnbilledLoansForDates</t>
+  </si>
+  <si>
+    <t>WMCUWGetAllUnbilledLoans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;rad:WMCUWGetAllUnbilledLoans&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         &lt;rad:strRepID&gt;A74&lt;/rad:strRepID&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;/rad:WMCUWGetAllUnbilledLoans&gt;</t>
+  </si>
+  <si>
+    <t>&lt;soap:Envelope xmlns:soap="http://schemas.xmlsoap.org/soap/envelope/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema"&gt;
+   &lt;soap:Body&gt;
+      &lt;WMCUWGetAllUnbilledLoansResponse xmlns="http://radianmi.MionlineCUW/"&gt;
+         &lt;WMCUWGetAllUnbilledLoansResult&gt;&lt;![CDATA[&lt;WSCUW_RESPONSE version='1.0' method=''&gt;&lt;call_returnstatus&gt;&lt;errorcode&gt;&lt;/errorcode&gt;&lt;errordesc&gt;&lt;/errordesc&gt;&lt;errorsrc&gt;&lt;/errorsrc&gt;&lt;/call_returnstatus&gt;&lt;repid&gt;A74&lt;/repid&gt;&lt;loans&gt;&lt;loan_info&gt;&lt;orderid&gt;196892&lt;/orderid&gt;&lt;loanid&gt;15000076&lt;/loanid&gt;&lt;lenderloanid&gt;INQUIRY TEST&lt;/lenderloanid&gt;&lt;decisiondate&gt;9/4/2012 2:10:02 PM&lt;/decisiondate&gt;&lt;miordered&gt;Y&lt;/miordered&gt;&lt;miappnumber&gt;51883841&lt;/miappnumber&gt;&lt;lienposition&gt;FirstLien&lt;/lienposition&gt;&lt;liencode&gt;1ST&lt;/liencode&gt;&lt;piggybackflag&gt;N&lt;/piggybackflag&gt;&lt;servicetype&gt;Manual&lt;/servicetype&gt;&lt;servicetypecode&gt;MANUN&lt;/servicetypecode&gt;&lt;auscodetext&gt;&lt;/auscodetext&gt;&lt;auscode&gt;&lt;/auscode&gt;&lt;ausrecommendation&gt;&lt;/ausrecommendation&gt;&lt;ausrecommendationcode&gt;&lt;/ausrecommendationcode&gt;&lt;ducaseid&gt;&lt;/ducaseid&gt;&lt;loanpurposedesc&gt;Purchase&lt;/loanpurposedesc&gt;&lt;loanpurposecode&gt;PUR&lt;/loanpurposecode&gt;&lt;loanamount&gt;120000&lt;/loanamount&gt;&lt;loanltv&gt;85&lt;/loanltv&gt;&lt;loanpropstreet&gt;INQUIRY TEST&lt;/loanpropstreet&gt;&lt;loanpropcity&gt;PHILA&lt;/loanpropcity&gt;&lt;loanpropstate&gt;PA&lt;/loanpropstate&gt;&lt;loanpropzip&gt;13123&lt;/loanpropzip&gt;&lt;loanprogram&gt;INQUIRY TEST&lt;/loanprogram&gt;&lt;loanstatusdesc&gt;Suspended&lt;/loanstatusdesc&gt;&lt;loanstatuscode&gt;SUSP&lt;/loanstatuscode&gt;&lt;businesschannel&gt;Wholesale&lt;/businesschannel&gt;&lt;businesschannelcode&gt;WHOLE&lt;/businesschannelcode&gt;&lt;brokerloanappnum&gt;INQUIRY TEST&lt;/brokerloanappnum&gt;&lt;lpkeynumber&gt;&lt;/lpkeynumber&gt;&lt;fulfillmentdate&gt;9/4/2012 12:00:00 AM&lt;/fulfillmentdate&gt;&lt;decisionby&gt;A74&lt;/decisionby&gt;&lt;borrowers&gt;&lt;borrower&gt;&lt;ssn&gt;111111111&lt;/ssn&gt;&lt;fname&gt;BRIAN&lt;/fname&gt;&lt;mname&gt;&lt;/mname&gt;&lt;lname&gt;INQUIRYTEST&lt;/lname&gt;&lt;ficoscore&gt;777&lt;/ficoscore&gt;&lt;/borrower&gt;&lt;/borrowers&gt;&lt;clientLenderinfo&gt;10758000|Bank of America, N.A.|100 N Tryon St||||Charlotte|NC|282550000&lt;/clientLenderinfo&gt;&lt;submittedByLenderInfo&gt;10758000|Bank of America, N.A.|100 N Tryon St||||Charlotte|NC|282550000&lt;/submittedByLenderInfo&gt;&lt;originatorLenderInfo&gt;10758000|Bank of America, N.A.|100 N Tryon St||||Charlotte|NC|282550000&lt;/originatorLenderInfo&gt;&lt;/loan_info&gt;&lt;loan_info&gt;&lt;orderid&gt;197045&lt;/orderid&gt;&lt;loanid&gt;15000229&lt;/loanid&gt;&lt;lenderloanid&gt;TC008.FNM&lt;/lenderloanid&gt;&lt;decisiondate&gt;1/8/2013 8:07:39 AM&lt;/decisiondate&gt;&lt;miordered&gt;Y&lt;/miordered&gt;&lt;miappnumber&gt;51896752&lt;/miappnumber&gt;&lt;lienposition&gt;FirstLien&lt;/lienposition&gt;&lt;liencode&gt;1ST&lt;/liencode&gt;&lt;piggybackflag&gt;N&lt;/piggybackflag&gt;&lt;servicetype&gt;Underwriting Edge&lt;/servicetype&gt;&lt;servicetypecode&gt;UWEDG&lt;/servicetypecode&gt;&lt;auscodetext&gt;&lt;/auscodetext&gt;&lt;auscode&gt;&lt;/auscode&gt;&lt;ausrecommendation&gt;&lt;/ausrecommendation&gt;&lt;ausrecommendationcode&gt;&lt;/ausrecommendationcode&gt;&lt;ducaseid&gt;0&lt;/ducaseid&gt;&lt;loanpurposedesc&gt;Purchase&lt;/loanpurposedesc&gt;&lt;loanpurposecode&gt;PUR&lt;/loanpurposecode&gt;&lt;loanamount&gt;124000&lt;/loanamount&gt;&lt;loanltv&gt;92.54&lt;/loanltv&gt;&lt;loanpropstreet&gt;8 XSH STREET&lt;/loanpropstreet&gt;&lt;loanpropcity&gt;FAIRFAX&lt;/loanpropcity&gt;&lt;loanpropstate&gt;VA&lt;/loanpropstate&gt;&lt;loanpropzip&gt;22033&lt;/loanpropzip&gt;&lt;loanprogram&gt;&lt;/loanprogram&gt;&lt;loanstatusdesc&gt;Approved&lt;/loanstatusdesc&gt;&lt;loanstatuscode&gt;APPRV&lt;/loanstatuscode&gt;&lt;businesschannel&gt;&lt;/businesschannel&gt;&lt;businesschannelcode&gt;OTH&lt;/businesschannelcode&gt;&lt;brokerloanappnum&gt;51896752&lt;/brokerloanappnum&gt;&lt;lpkeynumber&gt;0&lt;/lpkeynumber&gt;&lt;fulfillmentdate&gt;1/8/2013 12:00:00 AM&lt;/fulfillmentdate&gt;&lt;decisionby&gt;A74&lt;/decisionby&gt;&lt;borrowers&gt;&lt;borrower&gt;&lt;ssn&gt;300405000&lt;/ssn&gt;&lt;fname&gt;JOHN&lt;/fname&gt;&lt;mname&gt;V&lt;/mname&gt;&lt;lname&gt;HOMEOWNER&lt;/lname&gt;&lt;ficoscore&gt;760&lt;/ficoscore&gt;&lt;/borrower&gt;&lt;/borrowers&gt;&lt;clientLenderinfo&gt;A2651000|First Commerce Credit Union|2073 Summit Lake Dr #100||||Tallahassee|FL|323170000&lt;/clientLenderinfo&gt;&lt;submittedByLenderInfo&gt;A2651000|First Commerce Credit Union|2073 Summit Lake Dr #100||||Tallahassee|FL|323170000&lt;/submittedByLenderInfo&gt;&lt;originatorLenderInfo&gt;A2651000|First Commerce Credit Union|2073 Summit Lake Dr #100||||Tallahassee|FL|323170000&lt;/originatorLenderInfo&gt;&lt;/loan_info&gt;&lt;/loans&gt;&lt;/WSCUW_RESPONSE&gt;]]&gt;&lt;/WMCUWGetAllUnbilledLoansResult&gt;
+      &lt;/WMCUWGetAllUnbilledLoansResponse&gt;
+   &lt;/soap:Body&gt;
+&lt;/soap:Envelope&gt;</t>
+  </si>
+  <si>
+    <t>WMCUWGetAllUnbilledLoansForDates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;rad:WMCUWGetAllUnbilledLoansForDates&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         &lt;rad:startDate&gt;01/01/2012&lt;/rad:startDate&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         &lt;rad:endDate&gt;12/30/2012&lt;/rad:endDate&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;/rad:WMCUWGetAllUnbilledLoansForDates&gt;</t>
+  </si>
+  <si>
+    <t>&lt;soap:Envelope xmlns:soap="http://schemas.xmlsoap.org/soap/envelope/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema"&gt;
+   &lt;soap:Body&gt;
+      &lt;WMCUWGetAllUnbilledLoansForDatesResponse xmlns="http://radianmi.MionlineCUW/"&gt;
+         &lt;WMCUWGetAllUnbilledLoansForDatesResult&gt;&lt;![CDATA[&lt;WSCUW_RESPONSE version='1.0' method=''&gt;&lt;call_returnstatus&gt;&lt;errorcode&gt;&lt;/errorcode&gt;&lt;errordesc&gt;&lt;/errordesc&gt;&lt;errorsrc&gt;&lt;/errorsrc&gt;&lt;/call_returnstatus&gt;&lt;repid&gt;A74&lt;/repid&gt;&lt;loans&gt;&lt;loan_info&gt;&lt;orderid&gt;196892&lt;/orderid&gt;&lt;loanid&gt;15000076&lt;/loanid&gt;&lt;lenderloanid&gt;INQUIRY TEST&lt;/lenderloanid&gt;&lt;decisiondate&gt;9/4/2012 2:10:02 PM&lt;/decisiondate&gt;&lt;miordered&gt;Y&lt;/miordered&gt;&lt;miappnumber&gt;51883841&lt;/miappnumber&gt;&lt;lienposition&gt;FirstLien&lt;/lienposition&gt;&lt;liencode&gt;1ST&lt;/liencode&gt;&lt;piggybackflag&gt;N&lt;/piggybackflag&gt;&lt;servicetype&gt;Manual&lt;/servicetype&gt;&lt;servicetypecode&gt;MANUN&lt;/servicetypecode&gt;&lt;auscodetext&gt;&lt;/auscodetext&gt;&lt;auscode&gt;&lt;/auscode&gt;&lt;ausrecommendation&gt;&lt;/ausrecommendation&gt;&lt;ausrecommendationcode&gt;&lt;/ausrecommendationcode&gt;&lt;ducaseid&gt;&lt;/ducaseid&gt;&lt;loanpurposedesc&gt;Purchase&lt;/loanpurposedesc&gt;&lt;loanpurposecode&gt;PUR&lt;/loanpurposecode&gt;&lt;loanamount&gt;120000&lt;/loanamount&gt;&lt;loanltv&gt;85&lt;/loanltv&gt;&lt;loanpropstreet&gt;INQUIRY TEST&lt;/loanpropstreet&gt;&lt;loanpropcity&gt;PHILA&lt;/loanpropcity&gt;&lt;loanpropstate&gt;PA&lt;/loanpropstate&gt;&lt;loanpropzip&gt;13123&lt;/loanpropzip&gt;&lt;loanprogram&gt;INQUIRY TEST&lt;/loanprogram&gt;&lt;loanstatusdesc&gt;Suspended&lt;/loanstatusdesc&gt;&lt;loanstatuscode&gt;SUSP&lt;/loanstatuscode&gt;&lt;businesschannel&gt;Wholesale&lt;/businesschannel&gt;&lt;businesschannelcode&gt;WHOLE&lt;/businesschannelcode&gt;&lt;brokerloanappnum&gt;INQUIRY TEST&lt;/brokerloanappnum&gt;&lt;lpkeynumber&gt;&lt;/lpkeynumber&gt;&lt;fulfillmentdate&gt;9/4/2012 12:00:00 AM&lt;/fulfillmentdate&gt;&lt;decisionby&gt;A74&lt;/decisionby&gt;&lt;borrowers&gt;&lt;borrower&gt;&lt;ssn&gt;111111111&lt;/ssn&gt;&lt;fname&gt;BRIAN&lt;/fname&gt;&lt;mname&gt;&lt;/mname&gt;&lt;lname&gt;INQUIRYTEST&lt;/lname&gt;&lt;ficoscore&gt;777&lt;/ficoscore&gt;&lt;/borrower&gt;&lt;/borrowers&gt;&lt;clientLenderinfo&gt;10758000|Bank of America, N.A.|100 N Tryon St||||Charlotte|NC|282550000&lt;/clientLenderinfo&gt;&lt;submittedByLenderInfo&gt;10758000|Bank of America, N.A.|100 N Tryon St||||Charlotte|NC|282550000&lt;/submittedByLenderInfo&gt;&lt;originatorLenderInfo&gt;10758000|Bank of America, N.A.|100 N Tryon St||||Charlotte|NC|282550000&lt;/originatorLenderInfo&gt;&lt;/loan_info&gt;&lt;/loans&gt;&lt;/WSCUW_RESPONSE&gt;]]&gt;&lt;/WMCUWGetAllUnbilledLoansForDatesResult&gt;
+      &lt;/WMCUWGetAllUnbilledLoansForDatesResponse&gt;
+   &lt;/soap:Body&gt;
+&lt;/soap:Envelope&gt;</t>
   </si>
 </sst>
 </file>
@@ -542,24 +587,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D59AD3-E4F7-464F-A457-172C31B46858}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="175.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46EDF6B-7872-4E75-A486-06D66A4AB272}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="164.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -568,9 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E10569-1766-4947-9360-6C6EB830C17A}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -666,9 +868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DF41BE-2AD0-4423-BD30-08AEE0E957EE}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -735,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="174" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" ht="145" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -750,9 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360D6EAF-B4F1-4374-9E66-CA26271041B0}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -821,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71086224-E20F-4716-80EE-E0DBA4B1CCE6}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -912,9 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC312D5D-9CB7-4142-B7BA-40BC391C8408}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -981,7 +1177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1011,6 +1207,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E5AF58ECB8DAF845B07B24812A7DB68A" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="879740618c20d2c560299992b293f0db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="a64fa989-4104-46a2-91c1-4fd6a6f2ec01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="194e1e644dd0f8b5df66d1d48c526de0" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1175,23 +1380,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6B9D3C6-0EA0-42BD-AB96-56DC985EF2EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6B9D3C6-0EA0-42BD-AB96-56DC985EF2EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C320EB8-3E8B-436F-BFB0-92B9CEF0BD39}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160C3177-EC7F-45FB-99AE-F9AC42D88329}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160C3177-EC7F-45FB-99AE-F9AC42D88329}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C320EB8-3E8B-436F-BFB0-92B9CEF0BD39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="a64fa989-4104-46a2-91c1-4fd6a6f2ec01"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>